--- a/TestData/LV_TMTI0055018_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFRLOBOpportunityEngagement.xlsx
+++ b/TestData/LV_TMTI0055018_VerifyInternalDealTeamSpecialtyRoleIncreasedLimitForFRLOBOpportunityEngagement.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2BB13-D5B4-4435-AED1-BAD8F8202C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE60860-7B50-4E4C-B6F0-E66412A31833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{6B024EC1-CFC4-4478-BEDE-727CE3160023}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6B024EC1-CFC4-4478-BEDE-727CE3160023}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
     <sheet name="AppName" sheetId="7" r:id="rId2"/>
     <sheet name="ModuleName" sheetId="8" r:id="rId3"/>
-    <sheet name="Users" sheetId="2" r:id="rId4"/>
+    <sheet name="AddOpportunity" sheetId="1" r:id="rId4"/>
     <sheet name="AddContact" sheetId="3" r:id="rId5"/>
     <sheet name="OppDealTeamMembers" sheetId="4" r:id="rId6"/>
     <sheet name="EngDealTeamMembers" sheetId="5" r:id="rId7"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>Client</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Ryan Mahlan</t>
+  </si>
+  <si>
+    <t>Rebecca Hu</t>
+  </si>
+  <si>
+    <t>Timothy Kang</t>
+  </si>
+  <si>
+    <t>Alan Test</t>
   </si>
 </sst>
 </file>
@@ -1135,217 +1147,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDF7F8-97FD-42A2-944F-A031EA0AEA0E}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90537D08-6E7F-4E54-8CDB-35A7330A3F4E}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1407,33 +1235,217 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90537D08-6E7F-4E54-8CDB-35A7330A3F4E}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDF7F8-97FD-42A2-944F-A031EA0AEA0E}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1445,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51E48BF-85F6-4333-9229-666FC33867BB}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1491,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -1510,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4D31B6-974B-4F27-AE1C-8524FC5854B9}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,6 +1689,16 @@
         <v>99</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1688,7 +1710,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1725,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
